--- a/data/trans_camb/IP19C08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C08-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-6,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-5,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 0,71</t>
+          <t>-6,61; 3,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 1,62</t>
+          <t>-9,32; -0,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,37</t>
+          <t>-9,51; -0,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,55</t>
+          <t>-11,03; 1,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 1,77</t>
+          <t>-11,15; 1,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,63</t>
+          <t>-12,94; -1,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,37</t>
+          <t>-6,87; 1,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,83</t>
+          <t>-8,35; -0,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,89</t>
+          <t>-9,37; -1,94</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-43,11%</t>
+          <t>-13,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-31,68%</t>
+          <t>-65,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,07%</t>
+          <t>-65,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-28,96%</t>
+          <t>-41,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,55%</t>
+          <t>-42,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-71,57%</t>
+          <t>-59,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-36,77%</t>
+          <t>-30,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-29,89%</t>
+          <t>-51,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-38,27%</t>
+          <t>-62,15%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-78,05; 32,99</t>
+          <t>-64,8; 97,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,29; 70,28</t>
+          <t>-90,63; 6,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,13; 188,16</t>
+          <t>-92,35; 19,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-73,94; 76,41</t>
+          <t>-75,01; 20,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,73; 98,44</t>
+          <t>-75,65; 26,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-94,39; -14,07</t>
+          <t>-84,62; -2,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-67,14; 15,35</t>
+          <t>-61,58; 23,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 35,44</t>
+          <t>-73,28; -6,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-71,55; 37,75</t>
+          <t>-81,94; -24,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>-1,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 3,77</t>
+          <t>-4,47; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,32; -0,36</t>
+          <t>-4,24; 1,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -0,3</t>
+          <t>-3,71; 4,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 1,25</t>
+          <t>-3,7; 1,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 1,33</t>
+          <t>-3,65; 1,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,94; -1,22</t>
+          <t>-5,14; -0,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 1,39</t>
+          <t>-3,48; 0,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,35; -0,88</t>
+          <t>-3,1; 0,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,37; -1,94</t>
+          <t>-3,57; 0,89</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-13,9%</t>
+          <t>-43,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-65,26%</t>
+          <t>-31,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-65,88%</t>
+          <t>-15,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-41,72%</t>
+          <t>-28,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-42,35%</t>
+          <t>-27,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-59,15%</t>
+          <t>-71,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-30,61%</t>
+          <t>-36,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-51,26%</t>
+          <t>-29,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-62,15%</t>
+          <t>-38,27%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,8; 97,61</t>
+          <t>-78,05; 32,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-90,63; 6,31</t>
+          <t>-73,29; 70,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-92,35; 19,41</t>
+          <t>-67,13; 188,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,01; 20,17</t>
+          <t>-73,94; 76,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,65; 26,94</t>
+          <t>-74,73; 98,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,62; -2,15</t>
+          <t>-94,39; -14,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 23,1</t>
+          <t>-67,14; 15,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,28; -6,89</t>
+          <t>-61,45; 35,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-81,94; -24,55</t>
+          <t>-71,55; 37,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C08-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,37 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>14,72</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>7,78</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,37 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 29,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 22,42</t>
+          <t>0,0; 56,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 14,81</t>
+          <t>0,0; 29,76</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>267,73%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>161,49%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>421,83%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>333,48%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>-4,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 3,77</t>
+          <t>-8,47; 3,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,32; -0,36</t>
+          <t>-11,16; -0,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -0,3</t>
+          <t>-10,69; 0,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 1,25</t>
+          <t>-9,52; 4,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 1,33</t>
+          <t>-9,79; 4,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,94; -1,22</t>
+          <t>-12,41; 0,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 1,39</t>
+          <t>-6,61; 2,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,35; -0,88</t>
+          <t>-8,6; 0,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,37; -1,94</t>
+          <t>-8,92; -1,0</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,9%</t>
+          <t>-24,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-65,26%</t>
+          <t>-78,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-65,88%</t>
+          <t>-63,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-41,72%</t>
+          <t>-32,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-42,35%</t>
+          <t>-31,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-59,15%</t>
+          <t>-61,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-30,61%</t>
+          <t>-29,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-51,26%</t>
+          <t>-55,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-62,15%</t>
+          <t>-62,74%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,8; 97,61</t>
+          <t>-75,91; 128,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-90,63; 6,31</t>
+          <t>-100,0; 38,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-92,35; 19,41</t>
+          <t>-100,0; 48,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,01; 20,17</t>
+          <t>-79,78; 115,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,65; 26,94</t>
+          <t>-81,03; 136,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-84,62; -2,15</t>
+          <t>-90,7; 53,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 23,1</t>
+          <t>-66,52; 47,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,28; -6,89</t>
+          <t>-81,64; 3,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-81,94; -24,55</t>
+          <t>-85,29; -11,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-3,76</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 0,71</t>
+          <t>-7,51; 1,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 1,62</t>
+          <t>-7,76; 1,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,37</t>
+          <t>-7,84; 1,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,55</t>
+          <t>-7,67; 3,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 1,77</t>
+          <t>-9,85; 0,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,63</t>
+          <t>-11,15; -0,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,37</t>
+          <t>-6,06; 1,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,83</t>
+          <t>-7,16; 0,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,89</t>
+          <t>-7,61; -0,58</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-43,11%</t>
+          <t>-43,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,68%</t>
+          <t>-37,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-15,07%</t>
+          <t>-44,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-28,96%</t>
+          <t>-20,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-27,55%</t>
+          <t>-53,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-71,57%</t>
+          <t>-60,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-36,77%</t>
+          <t>-31,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-29,89%</t>
+          <t>-45,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-38,27%</t>
+          <t>-52,53%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,05; 32,99</t>
+          <t>-79,94; 62,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,29; 70,28</t>
+          <t>-76,76; 58,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,13; 188,16</t>
+          <t>-79,51; 62,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-73,94; 76,41</t>
+          <t>-67,42; 101,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-74,73; 98,44</t>
+          <t>-81,93; 23,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-94,39; -14,07</t>
+          <t>-90,15; 29,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-67,14; 15,35</t>
+          <t>-63,43; 44,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 35,44</t>
+          <t>-72,85; 4,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,55; 37,75</t>
+          <t>-77,73; 0,04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-2,19</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-1,89</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-3,49</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-0,67</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,32</t>
+          <t>-2,69; 3,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,21</t>
+          <t>-3,9; 1,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 1,69</t>
+          <t>-2,38; 8,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,29</t>
+          <t>-4,18; 1,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 0,75</t>
+          <t>-3,39; 3,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -1,37</t>
+          <t>-4,94; 0,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,52</t>
+          <t>-2,92; 1,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; -0,23</t>
+          <t>-2,62; 1,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,96; -0,35</t>
+          <t>-2,63; 2,86</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-22,0%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-45,24%</t>
+          <t>-39,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-29,79%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-26,21%</t>
+          <t>-41,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-33,18%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-61,15%</t>
+          <t>-68,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-24,26%</t>
+          <t>-22,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-38,7%</t>
+          <t>-19,09%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-45,87%</t>
+          <t>-22,05%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,29; 41,08</t>
+          <t>-69,19; 254,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-72,3; 10,55</t>
+          <t>-100,0; 130,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,06; 49,46</t>
+          <t>-70,45; 565,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,01; 31,32</t>
+          <t>-88,74; 115,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-63,25; 19,33</t>
+          <t>-75,4; 212,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-81,91; -28,19</t>
+          <t>-94,03; 43,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 13,32</t>
+          <t>-71,93; 65,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-59,72; -4,41</t>
+          <t>-68,91; 101,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,78; -6,08</t>
+          <t>-72,18; 177,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,49</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 1,2</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; -0,09</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 1,98</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 1,3</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 0,79</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; -1,03</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 0,44</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; -0,47</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; -0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-22,0%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-45,24%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-29,79%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-26,21%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-33,18%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-61,15%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-24,26%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-38,7%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-45,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-57,59; 37,82</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-73,89; 1,67</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-64,54; 57,08</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-60,57; 33,15</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-63,58; 23,39</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-81,45; -19,48</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-49,56; 12,06</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-60,07; -8,15</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-68,51; -8,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP19C08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C08-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,02</t>
+          <t>0,0; 58,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,76</t>
+          <t>0,0; 34,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 3,76</t>
+          <t>-8,24; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -0,79</t>
+          <t>-11,68; -1,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 0,61</t>
+          <t>-11,3; 0,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 4,34</t>
+          <t>-9,67; 3,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 4,77</t>
+          <t>-9,58; 4,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 0,88</t>
+          <t>-11,49; 0,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 2,06</t>
+          <t>-6,31; 2,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 0,08</t>
+          <t>-8,6; 0,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -1,0</t>
+          <t>-9,19; -1,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-75,91; 128,03</t>
+          <t>-77,02; 140,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 38,22</t>
+          <t>-100,0; 28,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 48,02</t>
+          <t>-100,0; 39,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-79,78; 115,56</t>
+          <t>-82,09; 82,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,03; 136,55</t>
+          <t>-81,28; 112,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-90,7; 53,17</t>
+          <t>-91,83; 56,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,52; 47,1</t>
+          <t>-65,63; 49,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-81,64; 3,81</t>
+          <t>-83,11; 7,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-85,29; -11,95</t>
+          <t>-86,7; -1,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 1,87</t>
+          <t>-7,79; 1,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 1,93</t>
+          <t>-7,59; 2,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 1,67</t>
+          <t>-7,42; 1,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 3,89</t>
+          <t>-7,19; 4,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 0,41</t>
+          <t>-9,7; 1,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -0,03</t>
+          <t>-9,77; 0,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 1,8</t>
+          <t>-5,82; 1,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 0,06</t>
+          <t>-6,93; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,61; -0,58</t>
+          <t>-7,24; -0,4</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-79,94; 62,99</t>
+          <t>-80,34; 57,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,76; 58,83</t>
+          <t>-77,4; 59,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,51; 62,96</t>
+          <t>-78,7; 61,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,42; 101,58</t>
+          <t>-64,83; 117,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,93; 23,6</t>
+          <t>-80,85; 51,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-90,15; 29,03</t>
+          <t>-86,7; 29,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,43; 44,85</t>
+          <t>-65,02; 29,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,85; 4,82</t>
+          <t>-71,08; 4,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,73; 0,04</t>
+          <t>-76,49; -4,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,31</t>
+          <t>-3,09; 3,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,53</t>
+          <t>-3,78; 1,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 8,46</t>
+          <t>-2,6; 7,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,26</t>
+          <t>-4,1; 1,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 3,49</t>
+          <t>-3,42; 3,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,1</t>
+          <t>-5,02; -0,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,18</t>
+          <t>-2,83; 1,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,73</t>
+          <t>-2,58; 1,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,86</t>
+          <t>-3,01; 2,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-69,19; 254,87</t>
+          <t>-72,09; 209,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 130,47</t>
+          <t>-100,0; 166,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,45; 565,88</t>
+          <t>-78,73; 485,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-88,74; 115,3</t>
+          <t>-86,56; 130,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-75,4; 212,53</t>
+          <t>-73,52; 219,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-94,03; 43,07</t>
+          <t>-95,6; 37,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,93; 65,77</t>
+          <t>-68,2; 78,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,91; 101,08</t>
+          <t>-68,78; 90,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-72,18; 177,18</t>
+          <t>-78,76; 139,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 1,2</t>
+          <t>-3,45; 1,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,09</t>
+          <t>-4,23; 0,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,98</t>
+          <t>-3,9; 1,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 1,3</t>
+          <t>-4,38; 1,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 0,79</t>
+          <t>-4,45; 0,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -1,03</t>
+          <t>-6,01; -1,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,44</t>
+          <t>-2,94; 0,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -0,47</t>
+          <t>-3,81; -0,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,31; -0,48</t>
+          <t>-4,28; -0,48</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-57,59; 37,82</t>
+          <t>-55,95; 42,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-73,89; 1,67</t>
+          <t>-70,1; 20,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,54; 57,08</t>
+          <t>-65,42; 66,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-60,57; 33,15</t>
+          <t>-57,33; 30,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-63,58; 23,39</t>
+          <t>-61,06; 25,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-81,45; -19,48</t>
+          <t>-81,21; -17,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-49,56; 12,06</t>
+          <t>-48,47; 11,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-60,07; -8,15</t>
+          <t>-62,62; -10,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-68,51; -8,79</t>
+          <t>-67,65; -6,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C08-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que en su última visita al dentista fue por selladores, aplicación de fluor</t>
+          <t>Menores que en su última visita al dentista fue por selladores, aplicación de flúor</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -642,24 +642,24 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>13,72</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,72</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>7,16</t>
         </is>
       </c>
     </row>
@@ -695,24 +695,24 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 52,95</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 58,34</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,8</t>
+          <t>0,0; 27,73</t>
         </is>
       </c>
     </row>
@@ -748,22 +748,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-2,71</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-5,07</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-1,69</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-5,39</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,71</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-2,67</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>-4,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 3,75</t>
+          <t>-9,76; 4,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -1,13</t>
+          <t>-9,02; 4,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 0,29</t>
+          <t>-11,67; 0,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 3,54</t>
+          <t>-8,16; 3,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 4,87</t>
+          <t>-11,27; -0,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 0,74</t>
+          <t>-10,11; 0,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 2,42</t>
+          <t>-6,89; 2,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 0,1</t>
+          <t>-8,68; -0,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,19; -1,01</t>
+          <t>-9,2; -1,21</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-32,35%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-31,88%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-60,51%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-24,47%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-78,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-63,45%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-32,35%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-31,88%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-61,63%</t>
+          <t>-65,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-62,74%</t>
+          <t>-63,08%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,02; 140,2</t>
+          <t>-80,08; 103,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 28,04</t>
+          <t>-78,74; 103,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 39,24</t>
+          <t>-90,36; 32,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-82,09; 82,86</t>
+          <t>-77,91; 124,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,28; 112,12</t>
+          <t>-100,0; 50,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-91,83; 56,37</t>
+          <t>-100,0; 59,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,63; 49,09</t>
+          <t>-66,81; 48,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-83,11; 7,38</t>
+          <t>-81,99; 4,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-86,7; -1,12</t>
+          <t>-85,92; -12,85</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-4,18</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-4,76</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-2,81</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-2,43</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,89</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,18</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-3,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 1,71</t>
+          <t>-7,94; 3,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 2,03</t>
+          <t>-10,0; 0,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 1,61</t>
+          <t>-10,32; 0,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 4,67</t>
+          <t>-7,73; 1,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 1,2</t>
+          <t>-8,11; 1,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 0,51</t>
+          <t>-8,18; 1,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 1,37</t>
+          <t>-5,93; 1,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 0,0</t>
+          <t>-7,27; -0,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -0,4</t>
+          <t>-7,74; -0,64</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-20,72%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-53,44%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-60,8%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-43,03%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-37,16%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-44,22%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-20,72%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-53,44%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-60,57%</t>
+          <t>-44,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-52,53%</t>
+          <t>-52,88%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,34; 57,57</t>
+          <t>-68,77; 90,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,4; 59,9</t>
+          <t>-82,59; 26,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,7; 61,76</t>
+          <t>-89,66; 13,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,83; 117,59</t>
+          <t>-80,77; 62,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-80,85; 51,97</t>
+          <t>-80,78; 51,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,7; 29,07</t>
+          <t>-80,47; 52,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,02; 29,71</t>
+          <t>-64,31; 28,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-71,08; 4,2</t>
+          <t>-72,2; 0,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,49; -4,1</t>
+          <t>-80,41; -9,88</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-1,33</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-1,15</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,05</t>
+          <t>-4,32; 1,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 1,73</t>
+          <t>-3,05; 3,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 7,54</t>
+          <t>-5,16; -0,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 1,5</t>
+          <t>-2,96; 3,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 3,61</t>
+          <t>-3,83; 1,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -0,15</t>
+          <t>-2,55; 6,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,49</t>
+          <t>-2,77; 1,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,68</t>
+          <t>-2,63; 1,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 2,93</t>
+          <t>-2,51; 3,13</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-41,67%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-2,09%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-69,16%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-0,05%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-39,93%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>23,92%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-41,67%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-2,09%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-68,82%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-22,05%</t>
+          <t>-20,16%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-72,09; 209,89</t>
+          <t>-87,54; 134,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 166,04</t>
+          <t>-71,29; 219,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-78,73; 485,9</t>
+          <t>-100,0; 27,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-86,56; 130,9</t>
+          <t>-74,1; 217,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-73,52; 219,64</t>
+          <t>-100,0; 142,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-95,6; 37,98</t>
+          <t>-75,89; 430,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-68,2; 78,79</t>
+          <t>-66,97; 68,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,78; 90,57</t>
+          <t>-67,53; 71,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-78,76; 139,77</t>
+          <t>-68,48; 167,42</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,5</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-1,06</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-2,19</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,89</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,41</t>
+          <t>-4,22; 1,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 0,6</t>
+          <t>-4,65; 0,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,97</t>
+          <t>-6,23; -1,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 1,09</t>
+          <t>-3,66; 1,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,96</t>
+          <t>-4,45; 0,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -1,03</t>
+          <t>-4,01; 1,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,45</t>
+          <t>-2,95; 0,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,81; -0,54</t>
+          <t>-3,69; -0,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,28; -0,48</t>
+          <t>-3,94; -0,34</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-26,21%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-33,18%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-61,23%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-22,0%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-45,24%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-29,79%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-26,21%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-33,18%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-61,15%</t>
+          <t>-30,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-45,87%</t>
+          <t>-45,7%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-55,95; 42,49</t>
+          <t>-58,01; 31,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-70,1; 20,54</t>
+          <t>-63,25; 19,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-65,42; 66,14</t>
+          <t>-81,87; -28,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-57,33; 30,97</t>
+          <t>-58,29; 41,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-61,06; 25,52</t>
+          <t>-72,3; 10,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-81,21; -17,79</t>
+          <t>-65,41; 49,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-48,47; 11,58</t>
+          <t>-48,09; 13,32</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-62,62; -10,96</t>
+          <t>-59,72; -4,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-67,65; -6,43</t>
+          <t>-65,0; -5,12</t>
         </is>
       </c>
     </row>
